--- a/examples/puerto_rico/data/sensitivityVariables.xlsx
+++ b/examples/puerto_rico/data/sensitivityVariables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temoa_tools\Temoa_Tools\V1_08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jab6ft\PycharmProjects\temoatools\examples\puerto_rico\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>variable</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>MinGrowthSeed</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +470,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +478,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +491,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +655,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,7 +709,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/examples/puerto_rico/data/sensitivityVariables.xlsx
+++ b/examples/puerto_rico/data/sensitivityVariables.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +491,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
